--- a/biology/Médecine/Jean_de_Recondo/Jean_de_Recondo.xlsx
+++ b/biology/Médecine/Jean_de_Recondo/Jean_de_Recondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean de Recondo, né le  18 août 1929  à Irun (Espagne) et mort le 26 juillet 2017 à Saint-Rémy-lès-Chevreuse (Yvelines) est un neurologue hospitalo-universitaire français. Chef de service à l'hôpital Sainte-Anne, il a enseigné à la faculté de médecine Cochin-Port Royal. 
 </t>
@@ -508,43 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Biographie</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jeunesse et formation
-Carrière hospitalière
-Dernières années
-Charges et distinctions</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean_de_Recondo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_de_Recondo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Mouvements conjugués oculaires et leurs diverses modalités d'atteinte (1967)
 Avec Pierre Rondot : La Maladie de Parkinson Paris : J.B. Baillière. (1976)
